--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -1065,7 +1065,11 @@
       <c r="O15" t="inlineStr"/>
       <c r="P15" t="inlineStr"/>
       <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
+      <c r="R15" t="inlineStr">
+        <is>
+          <t>*Silver Van will get oil change this day while at store (Palmer getting)</t>
+        </is>
+      </c>
       <c r="S15" t="inlineStr"/>
       <c r="T15" t="inlineStr"/>
       <c r="U15" t="inlineStr"/>
@@ -1109,22 +1113,9 @@
       <c r="N16" t="inlineStr"/>
       <c r="O16" t="inlineStr"/>
       <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>@ Store,
-Optima, Equip</t>
-        </is>
-      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr"/>
       <c r="U16" t="inlineStr">
         <is>
@@ -1203,18 +1194,18 @@
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store,
+Optima, Equip</t>
         </is>
       </c>
       <c r="T17" t="inlineStr"/>
@@ -1286,15 +1277,20 @@
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>Anisha</t>
-        </is>
-      </c>
-      <c r="S18" t="inlineStr"/>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Camry 3</t>
+        </is>
+      </c>
       <c r="T18" t="inlineStr"/>
       <c r="U18" t="inlineStr">
         <is>
@@ -1364,20 +1360,15 @@
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="S19" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
+          <t>Anisha</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr"/>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1462,15 +1453,20 @@
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>Elijah</t>
-        </is>
-      </c>
-      <c r="S20" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="T20" t="inlineStr"/>
       <c r="U20" t="inlineStr">
         <is>
@@ -1535,12 +1531,12 @@
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1621,12 +1617,12 @@
       <c r="P22" t="inlineStr"/>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S22" t="inlineStr"/>
@@ -1708,20 +1704,15 @@
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Red Camry</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
       <c r="U23" t="inlineStr">
         <is>
@@ -1791,15 +1782,20 @@
       <c r="P24" t="inlineStr"/>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>Joseph</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr"/>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Red Camry</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1886,12 +1882,12 @@
       <c r="P25" t="inlineStr"/>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="S25" t="inlineStr"/>
@@ -1971,12 +1967,12 @@
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -2057,20 +2053,15 @@
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr">
-        <is>
-          <t>@ Store
-Rx</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2120,18 +2111,18 @@
       <c r="P28" t="inlineStr"/>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Red Camry</t>
+          <t>@ Store
+Rx</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2186,18 +2177,18 @@
       <c r="P29" t="inlineStr"/>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Red Camry</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2264,17 +2255,18 @@
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>@ Store, Supv Rx</t>
+          <t>Driver, 1/2
+Camry 3</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2333,15 +2325,19 @@
       <c r="P31" t="inlineStr"/>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>@ Store, Supv Rx</t>
+        </is>
+      </c>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2376,8 +2372,16 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>16)</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2459,11 +2463,7 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2510,7 +2510,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2555,7 +2555,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2612,7 +2612,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>450 W HALF DAY RD</t>
+          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2670,7 +2670,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
+          <t>450 W HALF DAY RD</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2717,7 +2717,11 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
+        </is>
+      </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
@@ -2772,24 +2776,16 @@
       </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>*Optima will get oil change this day while at store (Palmer getting)</t>
+        </is>
+      </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S40" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2832,36 +2828,23 @@
       </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3</t>
-        </is>
-      </c>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2912,24 +2895,29 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3</t>
+        </is>
+      </c>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2989,34 +2977,29 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -3071,34 +3054,34 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3137,34 +3120,34 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3215,12 +3198,12 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
@@ -3231,17 +3214,18 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3290,18 +3274,30 @@
         </is>
       </c>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3361,12 +3357,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3414,12 +3410,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3467,12 +3463,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3528,12 +3524,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3585,12 +3581,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3630,12 +3626,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3673,9 +3669,21 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -3085,9 +3085,21 @@
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Nagui</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -4193,7 +4193,11 @@
           <t>Tina E</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>Until 10:30</t>
+        </is>
+      </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AA66"/>
+  <dimension ref="A1:AA67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2829,7 +2829,11 @@
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
@@ -2893,22 +2897,9 @@
         </is>
       </c>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O42" t="inlineStr">
-        <is>
-          <t>@ Store,
-Camry 3</t>
-        </is>
-      </c>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
@@ -2977,15 +2968,20 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O43" t="inlineStr"/>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>@ Store,
+Camry 3</t>
+        </is>
+      </c>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
@@ -3054,19 +3050,15 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
@@ -3132,18 +3124,17 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P45" t="inlineStr"/>
@@ -3210,17 +3201,18 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Driver,
+Optima</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3288,12 +3280,12 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Savannah</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
@@ -3363,9 +3355,21 @@
         </is>
       </c>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>Savannah</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
@@ -3921,7 +3925,11 @@
       </c>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>Please be careful to scan only product barcodes, and not the shelf scan tags</t>
+        </is>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -3957,21 +3965,9 @@
       </c>
       <c r="G61" t="inlineStr"/>
       <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr"/>
@@ -4008,15 +4004,19 @@
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr"/>
@@ -4053,12 +4053,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="K63" t="inlineStr"/>
@@ -4098,12 +4098,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="K64" t="inlineStr"/>
@@ -4148,12 +4148,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="K65" t="inlineStr"/>
@@ -4185,19 +4185,15 @@
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Until 10:30</t>
-        </is>
-      </c>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr"/>
@@ -4215,6 +4211,47 @@
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
     </row>
+    <row r="67">
+      <c r="A67" t="inlineStr"/>
+      <c r="B67" t="inlineStr"/>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr"/>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>Until 10:30</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -2711,7 +2711,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>*IL Meet is 5:00 am at IL Office</t>
+          <t>*IL Meet is 5:15 am at IL Office</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -1972,7 +1972,7 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Kayla</t>
         </is>
       </c>
       <c r="S26" t="inlineStr"/>
@@ -2058,10 +2058,15 @@
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>Kayla</t>
-        </is>
-      </c>
-      <c r="S27" t="inlineStr"/>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>@ Store
+Rx</t>
+        </is>
+      </c>
       <c r="T27" t="inlineStr"/>
       <c r="U27" t="inlineStr">
         <is>
@@ -2116,13 +2121,13 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>@ Store
-Rx</t>
+          <t>Driver, 1/2
+Red Camry</t>
         </is>
       </c>
       <c r="T28" t="inlineStr"/>
@@ -2182,13 +2187,13 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Red Camry</t>
+Camry 3</t>
         </is>
       </c>
       <c r="T29" t="inlineStr"/>
@@ -2260,13 +2265,12 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Sarah</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store, Supv Rx</t>
         </is>
       </c>
       <c r="T30" t="inlineStr"/>
@@ -2330,14 +2334,10 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>@ Store, Supv Rx</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr"/>
       <c r="T31" t="inlineStr"/>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr"/>
@@ -2372,16 +2372,8 @@
       <c r="N32" t="inlineStr"/>
       <c r="O32" t="inlineStr"/>
       <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>16)</t>
-        </is>
-      </c>
-      <c r="R32" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
       <c r="S32" t="inlineStr"/>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
@@ -2463,7 +2455,11 @@
       <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
       <c r="U34" t="inlineStr"/>
@@ -2510,7 +2506,7 @@
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S35" t="inlineStr"/>
@@ -2555,7 +2551,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2612,7 +2608,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>MARIANO'S #521 +RX, BUFFALO GROVE</t>
+          <t>450 W HALF DAY RD</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2670,7 +2666,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>450 W HALF DAY RD</t>
+          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2717,11 +2713,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/nj3eJAJHyT22</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr">
@@ -2783,9 +2775,21 @@
       </c>
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr">
         <is>
@@ -2838,17 +2842,17 @@
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T41" t="inlineStr"/>
@@ -2903,12 +2907,12 @@
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Brenda</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
@@ -2985,17 +2989,18 @@
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Brenda</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T43" t="inlineStr"/>
@@ -3062,18 +3067,17 @@
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T44" t="inlineStr"/>
@@ -3140,17 +3144,18 @@
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3218,18 +3223,17 @@
       <c r="P46" t="inlineStr"/>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T46" t="inlineStr"/>
@@ -3296,12 +3300,12 @@
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
@@ -3373,12 +3377,12 @@
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
@@ -3426,12 +3430,12 @@
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>NasZire</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3479,12 +3483,12 @@
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3540,12 +3544,12 @@
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3597,12 +3601,12 @@
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3642,12 +3646,12 @@
       <c r="P53" t="inlineStr"/>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
@@ -3685,21 +3689,9 @@
       <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -3228,7 +3228,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -3435,7 +3435,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>NasZire</t>
+          <t>Pamela</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Pamela</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3549,7 +3549,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3606,7 +3606,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3644,21 +3644,9 @@
       <c r="N53" t="inlineStr"/>
       <c r="O53" t="inlineStr"/>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -1236,7 +1236,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="AA17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -1397,12 +1402,7 @@
           <t>Evelin</t>
         </is>
       </c>
-      <c r="AA19" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+      <c r="AA19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>

--- a/04-20-25 to 04-26-25 Madison Schedule.xlsx
+++ b/04-20-25 to 04-26-25 Madison Schedule.xlsx
@@ -1399,10 +1399,14 @@
       </c>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="AA19" t="inlineStr"/>
+          <t>Brianna</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
